--- a/src/analysis_examples/circadb/results_jtk/cosinor_10359982_atf6_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10359982_atf6_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.27740503403591976, 0.3587337333292929]</t>
+          <t>[0.27849137294887694, 0.35764739441633575]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.231548279496565e-13</v>
+        <v>1.314504061156185e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>2.231548279496565e-13</v>
+        <v>1.314504061156185e-13</v>
       </c>
       <c r="O2" t="n">
         <v>-0.3396316382259235</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.35209609816711407, 0.3969978064158365]</t>
+          <t>[0.35210659911977504, 0.3969873054631755]</t>
         </is>
       </c>
       <c r="U2" t="n">
